--- a/data/summary_22071812.xlsx
+++ b/data/summary_22071812.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,313 +406,349 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>35.05635359116022</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>989.2414364640885</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.2916115702479339</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2391239669421488</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.871650872060122</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.0001251766813981773</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>31.8292817679558</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4.302209944751381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>34.42154696132597</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>989.3099447513812</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2052305785123967</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1959280991735537</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.319898756971713</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-2.573877041356322e-017</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>30.82983425414365</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>33.94585635359116</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>989.3033149171271</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.3138</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2883603305785124</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.087266447174032</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-3.723557179890622e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>30.3817679558011</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.29889502762431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>34.05801104972376</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>989.2138121546961</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2494743801652893</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1823123966942149</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.738596078414691</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.492695011377773e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.30883977900552</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>3.795027624309392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>34.13646408839779</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>989.1972375690608</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3139909090909091</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2216487603305785</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.363847088114923</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.000132733468449688</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>30.4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.980110497237569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.99613259668508</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>989.182320441989</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.2991876033057851</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2776462809917356</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.878002444255211</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7.931164036429217e-005</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30.4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.719337016574586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.77292817679558</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>989.1933701657459</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.7114223140495868</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.7318256198347107</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4.246028921799688</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8.872921137578581e-005</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.38342541436464</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>4.969613259668508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>33.59779005524862</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>989.214364640884</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1935206611570248</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.07712479338842976</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1.601910241321847</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7.128511926836781e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.14972375690608</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.595580110497238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>33.953591160221</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>989.2027624309393</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.5045314049586777</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5496743801652892</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.92180239003064</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001288528508333755</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.26574585635359</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2.298895027624309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>34.09171270718232</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>989.1425414364642</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2854421487603306</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2299148760330579</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.016404833102988</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.000135904564897626</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.2707182320442</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4.987292817679558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>33.79060773480663</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>989.1044198895028</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2694338842975207</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2447933884297521</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.809515796005638</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>9.557609265540678e-005</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>30.22099447513812</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.618232044198895</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>33.51988950276243</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>989.0983425414365</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3363148760330579</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3166595041322314</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.159391837614146</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>9.51598847073982e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30.1</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.587292817679558</v>
       </c>
     </row>
